--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.79499999999999</v>
+        <v>-21.02199999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.78730000000001</v>
+        <v>-22.64870000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.46199999999999</v>
+        <v>-20.50269999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.41</v>
+        <v>-7.433699999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.37900000000002</v>
+        <v>-22.4098</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.916599999999996</v>
+        <v>-7.755799999999999</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -641,10 +641,10 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.640899999999999</v>
+        <v>-6.6184</v>
       </c>
       <c r="E12" t="n">
-        <v>18.69240000000002</v>
+        <v>18.44360000000002</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.67050000000001</v>
+        <v>16.64900000000001</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.98430000000001</v>
+        <v>17.09230000000001</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.506599999999993</v>
+        <v>-8.607799999999994</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.8961</v>
+        <v>-21.81370000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.0571</v>
+        <v>16.13000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -763,12 +763,12 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.41710000000001</v>
+        <v>16.2357</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.79110000000001</v>
+        <v>-20.78570000000001</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,15 +777,15 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.507399999999994</v>
+        <v>-7.572299999999997</v>
       </c>
       <c r="E20" t="n">
-        <v>16.48639999999999</v>
+        <v>16.4649</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.56209999999999</v>
+        <v>-20.59929999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.851799999999998</v>
+        <v>-7.832799999999995</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,10 +811,10 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.013100000000005</v>
+        <v>-7.954300000000002</v>
       </c>
       <c r="E22" t="n">
-        <v>16.33909999999999</v>
+        <v>16.40569999999999</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.144499999999995</v>
+        <v>-7.288599999999997</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.19830000000001</v>
+        <v>-22.05230000000001</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.24299999999997</v>
+        <v>-21.20379999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.216400000000005</v>
+        <v>-7.287000000000003</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.6564</v>
+        <v>-21.7338</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2302</v>
+        <v>-21.16179999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.977599999999996</v>
+        <v>-7.978300000000001</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.02420000000001</v>
+        <v>15.79240000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.20260000000001</v>
+        <v>-19.9656</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.480900000000002</v>
+        <v>-8.455500000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,10 +1168,10 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.220999999999998</v>
+        <v>-8.156799999999997</v>
       </c>
       <c r="E43" t="n">
-        <v>16.6243</v>
+        <v>16.7406</v>
       </c>
     </row>
     <row r="44">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.716899999999995</v>
+        <v>-7.509299999999992</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.513099999999997</v>
+        <v>-7.579699999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.95310000000002</v>
+        <v>-21.96910000000002</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1219,10 +1219,10 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.743399999999993</v>
+        <v>-7.576499999999994</v>
       </c>
       <c r="E46" t="n">
-        <v>17.0855</v>
+        <v>17.13180000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1287,15 +1287,15 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.721100000000005</v>
+        <v>-8.494600000000002</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4381</v>
+        <v>16.5171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.9587</v>
+        <v>-22.0826</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.614399999999998</v>
+        <v>-7.561699999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.1156</v>
+        <v>-22.2093</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.67300000000001</v>
+        <v>-22.46740000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.447300000000006</v>
+        <v>-8.331900000000003</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.20290000000002</v>
+        <v>-22.30710000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.20690000000002</v>
+        <v>-22.23320000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.680399999999999</v>
+        <v>-7.611999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.434</v>
+        <v>-21.36930000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1559,7 +1559,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.500600000000003</v>
+        <v>-7.283499999999999</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.5646</v>
+        <v>-6.547000000000002</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.12269999999999</v>
+        <v>-19.8542</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.70539999999998</v>
+        <v>-21.80229999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1732,12 +1732,12 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.41509999999999</v>
+        <v>16.46419999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.64859999999999</v>
+        <v>-20.59989999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.239500000000003</v>
+        <v>-6.282400000000004</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.799800000000001</v>
+        <v>-8.814300000000003</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.973999999999998</v>
+        <v>-7.950299999999999</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.5462</v>
+        <v>-21.5821</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.537400000000002</v>
+        <v>-6.566000000000003</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.92010000000003</v>
+        <v>17.91180000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.707100000000001</v>
+        <v>-7.907600000000002</v>
       </c>
       <c r="E97" t="n">
-        <v>16.86439999999999</v>
+        <v>16.723</v>
       </c>
     </row>
     <row r="98">
@@ -2123,12 +2123,12 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.57389999999999</v>
+        <v>16.52959999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.1272</v>
+        <v>-22.22010000000001</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
